--- a/xlsxtemplate/chathai-templateV.1.0.0.xlsx
+++ b/xlsxtemplate/chathai-templateV.1.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\khongEM\chathai\Chathai_OnDev\xlsxtemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\khongEM\chathai\projectfortest\xlsxtemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77244FF7-D82E-4438-8519-75C4F72C3D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEA1F9D-E4D3-4178-8A59-BA83D9196D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5652" yWindow="1464" windowWidth="15588" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,22 +70,22 @@
     <t>type</t>
   </si>
   <si>
-    <t>Learn Cypress'</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>button[type="submit"]</t>
   </si>
   <si>
     <t xml:space="preserve">click </t>
   </si>
   <si>
-    <t>contain</t>
+    <t>contains</t>
   </si>
   <si>
     <t>Learn Cypress</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>skip</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,7 +168,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +401,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -495,17 +494,17 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -518,12 +517,14 @@
         <v>10</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="5"/>
     </row>
@@ -540,12 +541,10 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -560,15 +559,15 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -576,7 +575,6 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -642,7 +640,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="4:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -7529,8 +7527,8 @@
       <formula>$H2="YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F6 F8:F1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"log ,visit,should,click ,dblclick,rightclick,type,clear,check,uncheck,select,focus,blur,submit,trigger,scrollIntoView,scrollTo,get,find,children,parent,parents,eq,first,last,next,prev,siblings,filter,not,contains,wait,timeout,invoke,its,as,then,within,eac"&amp;"h,submit ,reset,selectFile  ,attachFile,drag,drop,hover,mouseover,mouseout,screenshot,debug,pause,reload,go,viewport,clearCookie,clearCookies,clearLocalStorage,getCookie,getCookies,setCookie"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="G2:G1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -7545,9 +7543,6 @@
     <dataValidation type="list" allowBlank="1" sqref="H2:H1000" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"YES"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F7" xr:uid="{EB65C974-5879-4D28-A0A3-E14F95959601}">
-      <formula1>"log ,visit,should,click ,dblclick,rightclick,type,clear,check,uncheck,select,focus,blur,submit,trigger,scrollIntoView,scrollTo,get,find,children,parent,parents,eq,first,last,next,prev,siblings,filter,not,contains,wait,timeout,invoke,its,as,then,within,eac"&amp;"h,submit ,reset,selectFile  ,attachFile,drag,drop,hover,mouseover,mouseout,screenshot,debug,pause,reload,go,viewport,clearCookie,clearCookies,clearLocalStorage,getCookie,getCookies,setCookie"</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
